--- a/TablaVerdadArduino.xlsx
+++ b/TablaVerdadArduino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bibim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD35BB-165B-4322-BC8B-23F1800A1758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C456A0FE-206A-477B-AEF9-27807B5DE142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A8DDA91E-B63D-4B92-87BB-20663D8C2C7A}"/>
   </bookViews>
@@ -1020,13 +1020,13 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>547932</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>72455</xdr:rowOff>
+      <xdr:rowOff>72454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>254781</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>131792</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1041,8 +1041,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20407557" y="1024955"/>
-          <a:ext cx="11771849" cy="14802420"/>
+          <a:off x="21155479" y="971039"/>
+          <a:ext cx="11927604" cy="14616413"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3285,11 +3285,6 @@
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
-          <a:endParaRPr lang="es-MX" sz="1400" b="1">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -3323,7 +3318,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>≡ O</a:t>
+            <a:t>≡ O </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
             <a:solidFill>
@@ -4120,7 +4139,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8CB22D-F7C5-44C4-99E6-536C16C9693D}" name="Table223" displayName="Table223" ref="A1:W257" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8CB22D-F7C5-44C4-99E6-536C16C9693D}" name="Table223" displayName="Table223" ref="A1:W257" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:W257" xr:uid="{61D15328-5C17-46F4-AA4D-4A3199DF5A44}">
     <filterColumn colId="14">
       <filters>
@@ -4158,7 +4177,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{252435CA-0C9A-4E20-B89D-94C712657FC4}" name="Table22" displayName="Table22" ref="A1:O257" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{252435CA-0C9A-4E20-B89D-94C712657FC4}" name="Table22" displayName="Table22" ref="A1:O257" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:O257" xr:uid="{61D15328-5C17-46F4-AA4D-4A3199DF5A44}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{6EDED363-A70A-4540-A67A-C6B446B2D3FC}" name="Baja Oxigenación"/>
@@ -4480,7 +4499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5434B724-89D7-424F-BE29-0668DF07BE7A}">
   <dimension ref="A1:W259"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0"/>
+    <sheetView topLeftCell="S186" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -17398,8 +17419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31672797-BC78-48FB-ACD0-B9141A6C7C87}">
   <dimension ref="A1:P259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L96" sqref="L96"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
